--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H2">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I2">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J2">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.976167666666667</v>
+        <v>3.390903999999999</v>
       </c>
       <c r="N2">
-        <v>14.928503</v>
+        <v>10.172712</v>
       </c>
       <c r="O2">
-        <v>0.1957067004436381</v>
+        <v>0.1656941395696903</v>
       </c>
       <c r="P2">
-        <v>0.195706700443638</v>
+        <v>0.1656941395696903</v>
       </c>
       <c r="Q2">
-        <v>4.386994391101</v>
+        <v>2.085825301794666</v>
       </c>
       <c r="R2">
-        <v>39.48294951990901</v>
+        <v>18.772427716152</v>
       </c>
       <c r="S2">
-        <v>0.004055419811023074</v>
+        <v>0.002494962050895797</v>
       </c>
       <c r="T2">
-        <v>0.004055419811023074</v>
+        <v>0.002494962050895797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H3">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I3">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J3">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.510315</v>
       </c>
       <c r="O3">
-        <v>0.2819916219431576</v>
+        <v>0.3503621390046235</v>
       </c>
       <c r="P3">
-        <v>0.2819916219431575</v>
+        <v>0.3503621390046235</v>
       </c>
       <c r="Q3">
-        <v>6.321171738104999</v>
+        <v>4.410501277985</v>
       </c>
       <c r="R3">
-        <v>56.890545642945</v>
+        <v>39.694511501865</v>
       </c>
       <c r="S3">
-        <v>0.005843409589852832</v>
+        <v>0.005275625578293638</v>
       </c>
       <c r="T3">
-        <v>0.005843409589852831</v>
+        <v>0.005275625578293637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H4">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I4">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J4">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.59057</v>
+        <v>0.9786293333333332</v>
       </c>
       <c r="N4">
-        <v>4.77171</v>
+        <v>2.935888</v>
       </c>
       <c r="O4">
-        <v>0.06255520862164893</v>
+        <v>0.04782003422813688</v>
       </c>
       <c r="P4">
-        <v>0.06255520862164893</v>
+        <v>0.04782003422813689</v>
       </c>
       <c r="Q4">
-        <v>1.40224810257</v>
+        <v>0.6019780638275556</v>
       </c>
       <c r="R4">
-        <v>12.62023292313</v>
+        <v>5.417802574448</v>
       </c>
       <c r="S4">
-        <v>0.001296264418907703</v>
+        <v>0.0007200566717784166</v>
       </c>
       <c r="T4">
-        <v>0.001296264418907704</v>
+        <v>0.0007200566717784166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H5">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I5">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J5">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.871526000000001</v>
+        <v>5.160571999999999</v>
       </c>
       <c r="N5">
-        <v>26.614578</v>
+        <v>15.481716</v>
       </c>
       <c r="O5">
-        <v>0.3489064673182461</v>
+        <v>0.2521677220078881</v>
       </c>
       <c r="P5">
-        <v>0.3489064673182461</v>
+        <v>0.2521677220078881</v>
       </c>
       <c r="Q5">
-        <v>7.821146193126001</v>
+        <v>3.174389970737333</v>
       </c>
       <c r="R5">
-        <v>70.39031573813401</v>
+        <v>28.569509736636</v>
       </c>
       <c r="S5">
-        <v>0.007230014079993075</v>
+        <v>0.003797049784044439</v>
       </c>
       <c r="T5">
-        <v>0.007230014079993075</v>
+        <v>0.003797049784044439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H6">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I6">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J6">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.818291</v>
+        <v>3.764629333333333</v>
       </c>
       <c r="N6">
-        <v>8.454873000000001</v>
+        <v>11.293888</v>
       </c>
       <c r="O6">
-        <v>0.1108400016733093</v>
+        <v>0.1839559651896613</v>
       </c>
       <c r="P6">
-        <v>0.1108400016733093</v>
+        <v>0.1839559651896613</v>
       </c>
       <c r="Q6">
-        <v>2.484608163891</v>
+        <v>2.315712599160889</v>
       </c>
       <c r="R6">
-        <v>22.361473475019</v>
+        <v>20.841413392448</v>
       </c>
       <c r="S6">
-        <v>0.002296818338977732</v>
+        <v>0.002769941974870363</v>
       </c>
       <c r="T6">
-        <v>0.002296818338977732</v>
+        <v>0.002769941974870362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>111.825123</v>
       </c>
       <c r="I7">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J7">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.976167666666667</v>
+        <v>3.390903999999999</v>
       </c>
       <c r="N7">
-        <v>14.928503</v>
+        <v>10.172712</v>
       </c>
       <c r="O7">
-        <v>0.1957067004436381</v>
+        <v>0.1656941395696903</v>
       </c>
       <c r="P7">
-        <v>0.195706700443638</v>
+        <v>0.1656941395696903</v>
       </c>
       <c r="Q7">
-        <v>185.4868537978743</v>
+        <v>126.396085627064</v>
       </c>
       <c r="R7">
-        <v>1669.381684180869</v>
+        <v>1137.564770643576</v>
       </c>
       <c r="S7">
-        <v>0.1714675229815952</v>
+        <v>0.1511888060567521</v>
       </c>
       <c r="T7">
-        <v>0.1714675229815952</v>
+        <v>0.1511888060567521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>111.825123</v>
       </c>
       <c r="I8">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J8">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.510315</v>
       </c>
       <c r="O8">
-        <v>0.2819916219431576</v>
+        <v>0.3503621390046235</v>
       </c>
       <c r="P8">
-        <v>0.2819916219431575</v>
+        <v>0.3503621390046235</v>
       </c>
       <c r="Q8">
         <v>267.2659578493049</v>
@@ -948,10 +948,10 @@
         <v>2405.393620643745</v>
       </c>
       <c r="S8">
-        <v>0.2470656590016997</v>
+        <v>0.3196904466335669</v>
       </c>
       <c r="T8">
-        <v>0.2470656590016997</v>
+        <v>0.3196904466335669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>111.825123</v>
       </c>
       <c r="I9">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J9">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.59057</v>
+        <v>0.9786293333333332</v>
       </c>
       <c r="N9">
-        <v>4.77171</v>
+        <v>2.935888</v>
       </c>
       <c r="O9">
-        <v>0.06255520862164893</v>
+        <v>0.04782003422813688</v>
       </c>
       <c r="P9">
-        <v>0.06255520862164893</v>
+        <v>0.04782003422813689</v>
       </c>
       <c r="Q9">
-        <v>59.28856196336999</v>
+        <v>36.47844852380265</v>
       </c>
       <c r="R9">
-        <v>533.5970576703299</v>
+        <v>328.306036714224</v>
       </c>
       <c r="S9">
-        <v>0.05480745752514551</v>
+        <v>0.04363373321060754</v>
       </c>
       <c r="T9">
-        <v>0.05480745752514552</v>
+        <v>0.04363373321060755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>111.825123</v>
       </c>
       <c r="I10">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J10">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.871526000000001</v>
+        <v>5.160571999999999</v>
       </c>
       <c r="N10">
-        <v>26.614578</v>
+        <v>15.481716</v>
       </c>
       <c r="O10">
-        <v>0.3489064673182461</v>
+        <v>0.2521677220078881</v>
       </c>
       <c r="P10">
-        <v>0.3489064673182461</v>
+        <v>0.2521677220078881</v>
       </c>
       <c r="Q10">
-        <v>330.686495382566</v>
+        <v>192.360532883452</v>
       </c>
       <c r="R10">
-        <v>2976.178458443094</v>
+        <v>1731.244795951068</v>
       </c>
       <c r="S10">
-        <v>0.3056927921614416</v>
+        <v>0.2300922465660795</v>
       </c>
       <c r="T10">
-        <v>0.3056927921614416</v>
+        <v>0.2300922465660795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>111.825123</v>
       </c>
       <c r="I11">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J11">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.818291</v>
+        <v>3.764629333333333</v>
       </c>
       <c r="N11">
-        <v>8.454873000000001</v>
+        <v>11.293888</v>
       </c>
       <c r="O11">
-        <v>0.1108400016733093</v>
+        <v>0.1839559651896613</v>
       </c>
       <c r="P11">
-        <v>0.1108400016733093</v>
+        <v>0.1839559651896613</v>
       </c>
       <c r="Q11">
-        <v>105.051912574931</v>
+        <v>140.3267127498027</v>
       </c>
       <c r="R11">
-        <v>945.467213174379</v>
+        <v>1262.940414748224</v>
       </c>
       <c r="S11">
-        <v>0.09711195626473525</v>
+        <v>0.1678519398228005</v>
       </c>
       <c r="T11">
-        <v>0.09711195626473523</v>
+        <v>0.1678519398228005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H12">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I12">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J12">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.976167666666667</v>
+        <v>3.390903999999999</v>
       </c>
       <c r="N12">
-        <v>14.928503</v>
+        <v>10.172712</v>
       </c>
       <c r="O12">
-        <v>0.1957067004436381</v>
+        <v>0.1656941395696903</v>
       </c>
       <c r="P12">
-        <v>0.195706700443638</v>
+        <v>0.1656941395696903</v>
       </c>
       <c r="Q12">
-        <v>21.83399887865811</v>
+        <v>10.04084878585066</v>
       </c>
       <c r="R12">
-        <v>196.505989907923</v>
+        <v>90.36763907265598</v>
       </c>
       <c r="S12">
-        <v>0.02018375765101978</v>
+        <v>0.01201037146204235</v>
       </c>
       <c r="T12">
-        <v>0.02018375765101978</v>
+        <v>0.01201037146204235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H13">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I13">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J13">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.510315</v>
       </c>
       <c r="O13">
-        <v>0.2819916219431576</v>
+        <v>0.3503621390046235</v>
       </c>
       <c r="P13">
-        <v>0.2819916219431575</v>
+        <v>0.3503621390046235</v>
       </c>
       <c r="Q13">
-        <v>31.460367699935</v>
+        <v>21.23148873682999</v>
       </c>
       <c r="R13">
-        <v>283.143309299415</v>
+        <v>191.0833986314699</v>
       </c>
       <c r="S13">
-        <v>0.02908255335160502</v>
+        <v>0.02539606679276299</v>
       </c>
       <c r="T13">
-        <v>0.02908255335160501</v>
+        <v>0.02539606679276299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H14">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I14">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J14">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.59057</v>
+        <v>0.9786293333333332</v>
       </c>
       <c r="N14">
-        <v>4.77171</v>
+        <v>2.935888</v>
       </c>
       <c r="O14">
-        <v>0.06255520862164893</v>
+        <v>0.04782003422813688</v>
       </c>
       <c r="P14">
-        <v>0.06255520862164893</v>
+        <v>0.04782003422813689</v>
       </c>
       <c r="Q14">
-        <v>6.978965726789999</v>
+        <v>2.897831714904888</v>
       </c>
       <c r="R14">
-        <v>62.81069154111</v>
+        <v>26.08048543414399</v>
       </c>
       <c r="S14">
-        <v>0.00645148667759571</v>
+        <v>0.003466244345750927</v>
       </c>
       <c r="T14">
-        <v>0.00645148667759571</v>
+        <v>0.003466244345750927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H15">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I15">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J15">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.871526000000001</v>
+        <v>5.160571999999999</v>
       </c>
       <c r="N15">
-        <v>26.614578</v>
+        <v>15.481716</v>
       </c>
       <c r="O15">
-        <v>0.3489064673182461</v>
+        <v>0.2521677220078881</v>
       </c>
       <c r="P15">
-        <v>0.3489064673182461</v>
+        <v>0.2521677220078881</v>
       </c>
       <c r="Q15">
-        <v>38.92571587438867</v>
+        <v>15.28103511644533</v>
       </c>
       <c r="R15">
-        <v>350.331442869498</v>
+        <v>137.529316048008</v>
       </c>
       <c r="S15">
-        <v>0.03598366107681144</v>
+        <v>0.01827842565776408</v>
       </c>
       <c r="T15">
-        <v>0.03598366107681143</v>
+        <v>0.01827842565776408</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H16">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I16">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J16">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.818291</v>
+        <v>3.764629333333333</v>
       </c>
       <c r="N16">
-        <v>8.454873000000001</v>
+        <v>11.293888</v>
       </c>
       <c r="O16">
-        <v>0.1108400016733093</v>
+        <v>0.1839559651896613</v>
       </c>
       <c r="P16">
-        <v>0.1108400016733093</v>
+        <v>0.1839559651896613</v>
       </c>
       <c r="Q16">
-        <v>12.36585393734367</v>
+        <v>11.14749160423822</v>
       </c>
       <c r="R16">
-        <v>111.292685436093</v>
+        <v>100.327424438144</v>
       </c>
       <c r="S16">
-        <v>0.01143122706959637</v>
+        <v>0.01333408339199052</v>
       </c>
       <c r="T16">
-        <v>0.01143122706959637</v>
+        <v>0.01333408339199051</v>
       </c>
     </row>
   </sheetData>
